--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA411A-2709-4C44-8F15-365CBB4FFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>lang_code</t>
   </si>
@@ -42,13 +42,34 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
     <t>service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>keerthini</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>avanish</t>
+  </si>
+  <si>
+    <t>avanish-admintest</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>mijan_32</t>
+  </si>
+  <si>
+    <t>mijan_1</t>
   </si>
 </sst>
 </file>
@@ -431,21 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,31 +480,129 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA411A-2709-4C44-8F15-365CBB4FFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B494663-A1B5-4760-A9E9-DAE09EF7DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
